--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -451,687 +451,927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>100039</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>富国通胀通缩主题混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>80.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>7.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>009789</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>富安达科技创新混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>90.48</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>5.21</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>84.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>320018</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>诺安新动力混合</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>79.31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>6.36</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005660</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005661</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>100056</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国低碳环保混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004997</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010160</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004361</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004362</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519007</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通强化回报混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>32.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006527</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国优质发展混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>257.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>107.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>61.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.99</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>320001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>诺安平衡混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320001</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安平衡混合</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>73.61</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>005739</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺安新动力混合</t>
+          <t>富国转型机遇混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001534</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝万物互联灵活配置混合</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.77</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1752,15 +2202,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>34.36</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>万家颐和灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>001534</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>华宝万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1864,15 +2354,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>99.33</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008185</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>诺安研究优选混合</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1966,26 +2496,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1994,26 +2528,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2504,7 +2505,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -2536,7 +2536,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -2552,6 +2551,2488 @@
       </c>
       <c r="H31" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.1759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>445.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.6737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9705</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8859</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2575</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5038,4 +5039,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.1421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>398.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.0894</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.2129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2680</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2873</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0895</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0860</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8902</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8238</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6675</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7831,4 +7832,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7840,7 +7841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7851,17 +7852,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7871,14 +7892,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.36</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.9791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7887,14 +7930,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.93</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7903,14 +7968,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.5</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7919,13 +8006,1785 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3419</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9683,7 +9684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9694,17 +9695,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9714,14 +9735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.12</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7004</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9730,14 +9773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75.36</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9746,14 +9811,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54.93</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9762,14 +9849,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.5</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9778,13 +9887,2181 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8551</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4560</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11944,7 +11945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11955,17 +11956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11975,14 +11996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.68</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.7719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -11991,14 +12034,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.12</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12007,14 +12072,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>72</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.36</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -12023,14 +12110,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.93</v>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -12039,14 +12148,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.5</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -12055,13 +12186,1777 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6553</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>37.17</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>38.68</v>
+        <v>37.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>38.12</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>75.36</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>54.93</v>
+        <v>75.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5</v>
+        <v>54.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.71</v>
       </c>
     </row>
@@ -600,6 +617,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1990</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +4144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4737,7 +6404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6579,7 +8246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9371,7 +11038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11853,7 +13520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13035,7 +14702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002353-杰瑞股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>25.02</v>
+        <v>18.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>37.17</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68</v>
+        <v>37.17</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>38.12</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>75.36</v>
+        <v>38.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>54.93</v>
+        <v>75.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5</v>
+        <v>54.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,960 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>151.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1564,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +4253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4144,7 +6131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6404,7 +8391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8246,7 +10233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11038,7 +13025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13520,7 +15507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14700,934 +16687,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004997</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>151.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.5721</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009914</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国成长动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.4899</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7099</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010160</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9669</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000940</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9455</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>100056</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国低碳环保混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8633</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6254</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4547</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>100039</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国通胀通缩主题混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4311</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1312</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006527</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国优质发展混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005660</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009789</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富安达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005661</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519007</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通强化回报混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>32.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004361</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004362</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>